--- a/script/bitstacker.xlsx
+++ b/script/bitstacker.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="132" yWindow="588" windowWidth="22716" windowHeight="8676"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="August2022" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Sep2022" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -133,16 +133,16 @@
     <t>0x8ad42a4d5cd1b4b629b9a8f487817462cd56cb64</t>
   </si>
   <si>
+    <t>0xd0d108a0664e24a772657c3e86a60ea2ed85b7f0</t>
+  </si>
+  <si>
+    <t>0x17cb493156707d8b8ca03dd6cbf3c034f4513497</t>
+  </si>
+  <si>
     <t>0x588093e95f9c467594f52d6b4271d89ff9d988cd</t>
   </si>
   <si>
     <t>0xc8385011a546271fbe080c9f6065bc0cce9c8b0e</t>
-  </si>
-  <si>
-    <t>0x17cb493156707d8b8ca03dd6cbf3c034f4513497</t>
-  </si>
-  <si>
-    <t>0xd0d108a0664e24a772657c3e86a60ea2ed85b7f0</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
@@ -647,19 +647,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
+        <v>0.65</v>
+      </c>
+      <c r="D3">
+        <v>0.55</v>
+      </c>
+      <c r="E3">
         <v>0.75</v>
       </c>
-      <c r="D3">
-        <v>0.85</v>
-      </c>
-      <c r="E3">
-        <v>1.1</v>
-      </c>
       <c r="F3">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="AH3">
-        <v>3.52</v>
+        <v>2.9000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -670,16 +670,16 @@
         <v>2100</v>
       </c>
       <c r="C4">
-        <v>2100</v>
+        <v>2620</v>
       </c>
       <c r="D4">
-        <v>2100</v>
+        <v>2620</v>
       </c>
       <c r="E4">
-        <v>2100</v>
+        <v>2620</v>
       </c>
       <c r="F4">
-        <v>2100</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
@@ -690,19 +690,19 @@
         <v>0.3419047619047619</v>
       </c>
       <c r="C6">
-        <v>0.5128571428571428</v>
+        <v>0.4852671755725191</v>
       </c>
       <c r="D6">
-        <v>0.5812380952380952</v>
+        <v>0.41061068702290077</v>
       </c>
       <c r="E6">
-        <v>0.7521904761904762</v>
+        <v>0.5599236641221373</v>
       </c>
       <c r="F6">
-        <v>0.2188190476190476</v>
+        <v>0.33595419847328245</v>
       </c>
       <c r="AH6">
-        <v>2.4070095238095237</v>
+        <v>2.1336604870956015</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
@@ -713,19 +713,19 @@
         <v>0.008571428571428572</v>
       </c>
       <c r="C7">
-        <v>0.012857142857142859</v>
+        <v>0.008931297709923664</v>
       </c>
       <c r="D7">
-        <v>0.014571428571428572</v>
+        <v>0.007557251908396947</v>
       </c>
       <c r="E7">
-        <v>0.01885714285714286</v>
+        <v>0.010305343511450382</v>
       </c>
       <c r="F7">
-        <v>0.0054857142857142865</v>
+        <v>0.006183206106870229</v>
       </c>
       <c r="AH7">
-        <v>0.060342857142857156</v>
+        <v>0.0415485278080698</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -733,22 +733,22 @@
         <v>39</v>
       </c>
       <c r="B8">
-        <v>0.0009523809523809524</v>
+        <v>0.047619047619047616</v>
       </c>
       <c r="C8">
-        <v>0.0014285714285714286</v>
+        <v>0.04961832061068703</v>
       </c>
       <c r="D8">
-        <v>0.001619047619047619</v>
+        <v>0.04198473282442749</v>
       </c>
       <c r="E8">
-        <v>0.0020952380952380953</v>
+        <v>0.05725190839694656</v>
       </c>
       <c r="F8">
-        <v>0.0006095238095238096</v>
+        <v>0.03435114503816794</v>
       </c>
       <c r="AH8">
-        <v>0.006704761904761905</v>
+        <v>0.23082515448927665</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -756,22 +756,22 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>0.09523809523809523</v>
+        <v>0.005714285714285714</v>
       </c>
       <c r="C9">
-        <v>0.14285714285714285</v>
+        <v>0.005954198473282444</v>
       </c>
       <c r="D9">
-        <v>0.16190476190476188</v>
+        <v>0.005038167938931299</v>
       </c>
       <c r="E9">
-        <v>0.20952380952380953</v>
+        <v>0.0068702290076335885</v>
       </c>
       <c r="F9">
-        <v>0.06095238095238095</v>
+        <v>0.004122137404580153</v>
       </c>
       <c r="AH9">
-        <v>0.6704761904761904</v>
+        <v>0.027699018538713198</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -779,22 +779,22 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>0.005714285714285714</v>
+        <v>0.0009523809523809524</v>
       </c>
       <c r="C10">
-        <v>0.008571428571428572</v>
+        <v>0.0009923664122137405</v>
       </c>
       <c r="D10">
-        <v>0.009714285714285713</v>
+        <v>0.0008396946564885497</v>
       </c>
       <c r="E10">
-        <v>0.012571428571428572</v>
+        <v>0.0011450381679389313</v>
       </c>
       <c r="F10">
-        <v>0.003657142857142857</v>
+        <v>0.0006870229007633588</v>
       </c>
       <c r="AH10">
-        <v>0.04022857142857143</v>
+        <v>0.004616503089785532</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -802,22 +802,22 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>0.047619047619047616</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C11">
-        <v>0.07142857142857142</v>
+        <v>0.09923664122137406</v>
       </c>
       <c r="D11">
-        <v>0.08095238095238094</v>
+        <v>0.08396946564885498</v>
       </c>
       <c r="E11">
-        <v>0.10476190476190476</v>
+        <v>0.11450381679389313</v>
       </c>
       <c r="F11">
-        <v>0.030476190476190476</v>
+        <v>0.06870229007633588</v>
       </c>
       <c r="AH11">
-        <v>0.3352380952380952</v>
+        <v>0.4616503089785533</v>
       </c>
     </row>
   </sheetData>
